--- a/Semana03/Grupos-Diseño_analisis_y_sistema.xlsx
+++ b/Semana03/Grupos-Diseño_analisis_y_sistema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UNI\UNI-EPIES-DAS-2022-2\Semana03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A49EE-7A1B-45BE-B4B0-C43F9CF90BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78385CF1-7601-4F21-B071-58D727E8CF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>grupo 1</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>LUIS MIGUEL MESIA SOTOMAYOR</t>
+  </si>
+  <si>
+    <t>No se encuentra en la lista: CARUAJULCA CAMPOS MONICA JHAJAIRA</t>
   </si>
 </sst>
 </file>
@@ -164,9 +167,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,17 +453,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D12"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
@@ -570,7 +577,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B16:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
